--- a/AutoRegularInspection/桥梁病害汇总表.xlsx
+++ b/AutoRegularInspection/桥梁病害汇总表.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649053DF-FCE1-4E50-BF4F-38547145B722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4995" yWindow="1710" windowWidth="16485" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="桥面系" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +24,205 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥面铺装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坑槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坑洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥面贯通横缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥面贯通纵缝</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>桥头平顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病害名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病害索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病害值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥头沉降</t>
+  </si>
+  <si>
+    <t>台背下沉</t>
+  </si>
+  <si>
+    <t>伸缩缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺帽松动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缝内沉积物阻塞</t>
+  </si>
+  <si>
+    <t>止水带破损</t>
+  </si>
+  <si>
+    <t>止水带老化</t>
+  </si>
+  <si>
+    <t>钢材料破损</t>
+  </si>
+  <si>
+    <t>接缝处铺装碎边</t>
+  </si>
+  <si>
+    <t>接缝处高差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材料翘曲变形</t>
+  </si>
+  <si>
+    <t>结构缝宽异常</t>
+  </si>
+  <si>
+    <t>伸缩缝处异常声响</t>
+  </si>
+  <si>
+    <t>排水系统</t>
+  </si>
+  <si>
+    <t>泄水管阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残缺脱落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥面积水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露筋锈蚀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松动错位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失残缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人行道块件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +527,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoRegularInspection/桥梁病害汇总表.xlsx
+++ b/AutoRegularInspection/桥梁病害汇总表.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649053DF-FCE1-4E50-BF4F-38547145B722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922A050-BF31-49CB-B35A-DCC3CEDC3FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="1710" windowWidth="16485" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
+    <sheet name="上部结构" sheetId="2" r:id="rId2"/>
+    <sheet name="下部结构" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +206,161 @@
   <si>
     <t>残缺</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面裂缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混凝土剥离</t>
+  </si>
+  <si>
+    <t>混凝土剥离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露筋锈蚀</t>
+  </si>
+  <si>
+    <t>梁体下挠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构裂缝</t>
+  </si>
+  <si>
+    <t>结构裂缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂缝处渗水</t>
+  </si>
+  <si>
+    <t>裂缝处渗水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥面贯通横缝</t>
+  </si>
+  <si>
+    <t>梁体位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥面贯通纵缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接件脱焊松动</t>
+  </si>
+  <si>
+    <t>连接件断裂</t>
+  </si>
+  <si>
+    <t>连接件断裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横隔板网裂</t>
+  </si>
+  <si>
+    <t>横隔板网裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横隔板剥落露筋</t>
+  </si>
+  <si>
+    <t>横隔板剥落露筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁体异常振动</t>
+  </si>
+  <si>
+    <t>梁体异常振动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防落梁装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无落架趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛腿表面损伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸缩缝处渗水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢锚板锈蚀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台帽</t>
+  </si>
+  <si>
+    <t>墩台成块剥落</t>
+  </si>
+  <si>
+    <t>盖梁</t>
+  </si>
+  <si>
+    <t>墩身</t>
+  </si>
+  <si>
+    <t>墩身水平裂缝</t>
+  </si>
+  <si>
+    <t>墩身纵向裂缝</t>
+  </si>
+  <si>
+    <t>框架式节点裂缝</t>
+  </si>
+  <si>
+    <t>桥墩倾斜</t>
+  </si>
+  <si>
+    <t>台身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳背翼墙</t>
+  </si>
+  <si>
+    <t>支座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定螺栓损坏</t>
+  </si>
+  <si>
+    <t>橡胶支座变形</t>
+  </si>
+  <si>
+    <t>钢支座损坏</t>
+  </si>
+  <si>
+    <t>底板混凝土破损</t>
+  </si>
+  <si>
+    <t>稳定性异常</t>
+  </si>
+  <si>
+    <t>钢垫板锈蚀</t>
   </si>
 </sst>
 </file>
@@ -530,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1580,4 +1737,1631 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F47B95-C7A3-4623-A36A-AB1202BB73A7}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE83029-A805-4535-A6D5-DF10F8642D4E}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutoRegularInspection/桥梁病害汇总表.xlsx
+++ b/AutoRegularInspection/桥梁病害汇总表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922A050-BF31-49CB-B35A-DCC3CEDC3FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17760FCA-A753-4AD8-BF87-4D9E444C11FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="103">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,46 @@
   </si>
   <si>
     <t>钢垫板锈蚀</t>
+  </si>
+  <si>
+    <t>网裂或龟裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波浪及车辙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎裂或破碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止水带破损、老化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病害分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆或护栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台帽盖梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墩台身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -685,19 +725,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:G45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,1030 +747,1300 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="F12">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
-        <v>2</v>
+      <c r="C16" t="s">
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
-        <v>2</v>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="C18" t="s">
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="C19" t="s">
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
-        <v>2</v>
+      <c r="C20" t="s">
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
         <v>27</v>
       </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
-        <v>2</v>
+      <c r="C21" t="s">
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>2</v>
+      <c r="C22" t="s">
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="C23" t="s">
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
         <v>30</v>
       </c>
-      <c r="F23">
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24">
-        <v>2</v>
+      <c r="C24" t="s">
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
         <v>31</v>
       </c>
-      <c r="F24">
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25">
-        <v>2</v>
+      <c r="C25" t="s">
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
         <v>32</v>
       </c>
-      <c r="F25">
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25">
         <v>9</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C26">
-        <v>2</v>
+      <c r="C26" t="s">
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="F26">
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26">
         <v>10</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
-        <v>3</v>
+      <c r="C27" t="s">
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
         <v>34</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28">
-        <v>3</v>
+      <c r="C28" t="s">
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
         <v>35</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29">
-        <v>3</v>
+      <c r="C29" t="s">
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
         <v>36</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30">
-        <v>3</v>
+      <c r="C30" t="s">
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31">
-        <v>3</v>
+      <c r="C31" t="s">
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
         <v>38</v>
       </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C32">
-        <v>4</v>
+      <c r="C32" t="s">
+        <v>99</v>
       </c>
       <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
         <v>40</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33">
-        <v>4</v>
+      <c r="C33" t="s">
+        <v>99</v>
       </c>
       <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
         <v>41</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34">
-        <v>4</v>
+      <c r="C34" t="s">
+        <v>99</v>
       </c>
       <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
         <v>42</v>
       </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C35">
-        <v>4</v>
+      <c r="C35" t="s">
+        <v>99</v>
       </c>
       <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
         <v>38</v>
       </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="C36">
-        <v>5</v>
+      <c r="C36" t="s">
+        <v>99</v>
       </c>
       <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
         <v>40</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C37">
-        <v>5</v>
+      <c r="C37" t="s">
+        <v>99</v>
       </c>
       <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
         <v>41</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="C38">
-        <v>5</v>
+      <c r="C38" t="s">
+        <v>99</v>
       </c>
       <c r="D38">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
         <v>42</v>
       </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39">
-        <v>5</v>
+      <c r="C39" t="s">
+        <v>99</v>
       </c>
       <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
         <v>38</v>
       </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C40">
-        <v>6</v>
+      <c r="C40" t="s">
+        <v>44</v>
       </c>
       <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
         <v>7</v>
       </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
-      <c r="C41">
-        <v>6</v>
+      <c r="C41" t="s">
+        <v>44</v>
       </c>
       <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
         <v>7</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>45</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42">
-        <v>6</v>
+      <c r="C42" t="s">
+        <v>44</v>
       </c>
       <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
         <v>7</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>46</v>
       </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C43">
-        <v>6</v>
+      <c r="C43" t="s">
+        <v>44</v>
       </c>
       <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
         <v>7</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>47</v>
       </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44">
-        <v>6</v>
+      <c r="C44" t="s">
+        <v>44</v>
       </c>
       <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
         <v>7</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>38</v>
       </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45">
         <v>7</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>99</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>38</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>99</v>
       </c>
     </row>
@@ -1741,19 +2053,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F47B95-C7A3-4623-A36A-AB1202BB73A7}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1761,524 +2075,662 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="F9">
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="F10">
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>68</v>
       </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="C18" t="s">
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="C19" t="s">
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
         <v>73</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20">
-        <v>2</v>
+      <c r="C20" t="s">
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
         <v>74</v>
       </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="C21">
-        <v>2</v>
+      <c r="C21" t="s">
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
         <v>75</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C22">
-        <v>2</v>
+      <c r="C22" t="s">
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
         <v>38</v>
       </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C23">
-        <v>3</v>
+      <c r="C23" t="s">
+        <v>38</v>
       </c>
       <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>99</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>38</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>99</v>
       </c>
     </row>
@@ -2291,18 +2743,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE83029-A805-4535-A6D5-DF10F8642D4E}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2310,1053 +2762,1329 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>101</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>101</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>77</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>101</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>101</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>56</v>
       </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>101</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>77</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>38</v>
       </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>79</v>
       </c>
-      <c r="C16">
-        <v>2</v>
+      <c r="C16" t="s">
+        <v>102</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="C17">
-        <v>2</v>
+      <c r="C17" t="s">
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="C18" t="s">
+        <v>102</v>
       </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
         <v>82</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="C19" t="s">
+        <v>102</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="C20">
-        <v>2</v>
+      <c r="C20" t="s">
+        <v>102</v>
       </c>
       <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
         <v>50</v>
       </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C21">
-        <v>2</v>
+      <c r="C21" t="s">
+        <v>102</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
         <v>83</v>
       </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>79</v>
       </c>
-      <c r="C22">
-        <v>2</v>
+      <c r="C22" t="s">
+        <v>102</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="C23" t="s">
+        <v>102</v>
       </c>
       <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
         <v>38</v>
       </c>
-      <c r="F23">
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="C24">
-        <v>3</v>
+      <c r="C24" t="s">
+        <v>102</v>
       </c>
       <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
         <v>80</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="C25">
-        <v>3</v>
+      <c r="C25" t="s">
+        <v>102</v>
       </c>
       <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>81</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
       </c>
-      <c r="C26">
-        <v>3</v>
+      <c r="C26" t="s">
+        <v>102</v>
       </c>
       <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
         <v>82</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="C27">
-        <v>3</v>
+      <c r="C27" t="s">
+        <v>102</v>
       </c>
       <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
         <v>52</v>
       </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C28">
-        <v>3</v>
+      <c r="C28" t="s">
+        <v>102</v>
       </c>
       <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
         <v>50</v>
       </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29">
-        <v>3</v>
+      <c r="C29" t="s">
+        <v>102</v>
       </c>
       <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
         <v>83</v>
       </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C30">
-        <v>3</v>
+      <c r="C30" t="s">
+        <v>102</v>
       </c>
       <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C31">
-        <v>3</v>
+      <c r="C31" t="s">
+        <v>102</v>
       </c>
       <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
         <v>38</v>
       </c>
-      <c r="F31">
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31">
         <v>7</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="C32">
-        <v>4</v>
+      <c r="C32" t="s">
+        <v>86</v>
       </c>
       <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
         <v>87</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>86</v>
       </c>
-      <c r="C33">
-        <v>4</v>
+      <c r="C33" t="s">
+        <v>86</v>
       </c>
       <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
         <v>88</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>86</v>
       </c>
-      <c r="C34">
-        <v>4</v>
+      <c r="C34" t="s">
+        <v>86</v>
       </c>
       <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
         <v>89</v>
       </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C35">
-        <v>4</v>
+      <c r="C35" t="s">
+        <v>86</v>
       </c>
       <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
         <v>90</v>
       </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
       </c>
-      <c r="C36">
-        <v>4</v>
+      <c r="C36" t="s">
+        <v>86</v>
       </c>
       <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
         <v>91</v>
       </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>86</v>
       </c>
-      <c r="C37">
-        <v>4</v>
+      <c r="C37" t="s">
+        <v>86</v>
       </c>
       <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
         <v>92</v>
       </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>86</v>
       </c>
-      <c r="C38">
-        <v>4</v>
+      <c r="C38" t="s">
+        <v>86</v>
       </c>
       <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
         <v>12</v>
       </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38">
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C39">
-        <v>5</v>
+      <c r="C39" t="s">
+        <v>85</v>
       </c>
       <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="C40">
-        <v>5</v>
+      <c r="C40" t="s">
+        <v>85</v>
       </c>
       <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
         <v>62</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>85</v>
       </c>
-      <c r="C41">
-        <v>5</v>
+      <c r="C41" t="s">
+        <v>85</v>
       </c>
       <c r="D41">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
         <v>63</v>
       </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C42">
-        <v>5</v>
+      <c r="C42" t="s">
+        <v>85</v>
       </c>
       <c r="D42">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="C43">
-        <v>5</v>
+      <c r="C43" t="s">
+        <v>85</v>
       </c>
       <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
         <v>67</v>
       </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="C44">
-        <v>5</v>
+      <c r="C44" t="s">
+        <v>85</v>
       </c>
       <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
         <v>69</v>
       </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="C45">
-        <v>5</v>
+      <c r="C45" t="s">
+        <v>85</v>
       </c>
       <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
         <v>12</v>
       </c>
-      <c r="F45">
-        <v>6</v>
-      </c>
-      <c r="G45">
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46">
-        <v>6</v>
+      <c r="C46" t="s">
+        <v>12</v>
       </c>
       <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
         <v>7</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>12</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>99</v>
       </c>
     </row>

--- a/AutoRegularInspection/桥梁病害汇总表.xlsx
+++ b/AutoRegularInspection/桥梁病害汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17760FCA-A753-4AD8-BF87-4D9E444C11FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD8ABD-66E3-43C4-A821-ED011FC908CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="6000" windowWidth="24360" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2745,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE83029-A805-4535-A6D5-DF10F8642D4E}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16:G46"/>
     </sheetView>
   </sheetViews>

--- a/AutoRegularInspection/桥梁病害汇总表.xlsx
+++ b/AutoRegularInspection/桥梁病害汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD8ABD-66E3-43C4-A821-ED011FC908CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433C6A6-A005-41D6-A6D9-367BD9B1325D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="6000" windowWidth="24360" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="2160" windowWidth="24360" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/AutoRegularInspection/桥梁病害汇总表.xlsx
+++ b/AutoRegularInspection/桥梁病害汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433C6A6-A005-41D6-A6D9-367BD9B1325D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB33B7F-F3AB-40DC-877F-9E1339AD77E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="2160" windowWidth="24360" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/AutoRegularInspection/桥梁病害汇总表.xlsx
+++ b/AutoRegularInspection/桥梁病害汇总表.xlsx
@@ -1,76 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB33B7F-F3AB-40DC-877F-9E1339AD77E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
     <sheet name="上部结构" sheetId="2" r:id="rId2"/>
     <sheet name="下部结构" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素名称</t>
+  </si>
+  <si>
+    <t>要素分类</t>
+  </si>
+  <si>
+    <t>要素索引</t>
+  </si>
+  <si>
+    <t>要素值</t>
+  </si>
+  <si>
+    <t>病害名称</t>
+  </si>
+  <si>
+    <t>病害分类</t>
+  </si>
+  <si>
+    <t>病害索引</t>
+  </si>
+  <si>
+    <t>病害值</t>
   </si>
   <si>
     <t>桥面铺装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网裂或龟裂</t>
   </si>
   <si>
     <t>龟裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>波浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波浪及车辙</t>
   </si>
   <si>
     <t>车辙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坑槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>碎裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎裂或破碎</t>
   </si>
   <si>
     <t>破碎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坑洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桥面贯通横缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桥面贯通纵缝</t>
@@ -80,31 +91,6 @@
   </si>
   <si>
     <t>桥头平顺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要素名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要素索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要素值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病害名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病害索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病害值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桥头沉降</t>
@@ -114,11 +100,9 @@
   </si>
   <si>
     <t>伸缩缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>螺帽松动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缝内沉积物阻塞</t>
@@ -127,6 +111,9 @@
     <t>止水带破损</t>
   </si>
   <si>
+    <t>止水带破损、老化</t>
+  </si>
+  <si>
     <t>止水带老化</t>
   </si>
   <si>
@@ -137,7 +124,6 @@
   </si>
   <si>
     <t>接缝处高差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>钢材料翘曲变形</t>
@@ -153,110 +139,102 @@
   </si>
   <si>
     <t>泄水管阻塞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>残缺脱落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桥面积水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>防水层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>栏杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆或护栏</t>
   </si>
   <si>
     <t>露筋锈蚀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>松动错位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丢失残缺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人行道块件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>松动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>变形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>残缺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢结构物</t>
+  </si>
+  <si>
+    <t>变色起皮</t>
+  </si>
+  <si>
+    <t>油漆剥落</t>
+  </si>
+  <si>
+    <t>一般锈蚀</t>
+  </si>
+  <si>
+    <t>严重锈蚀</t>
+  </si>
+  <si>
+    <t>锈蚀成洞</t>
+  </si>
+  <si>
+    <t>焊缝裂纹</t>
+  </si>
+  <si>
+    <t>焊缝开裂</t>
+  </si>
+  <si>
+    <t>铆钉损失</t>
+  </si>
+  <si>
+    <t>螺栓松动</t>
+  </si>
+  <si>
+    <t>错位变形</t>
   </si>
   <si>
     <t>主梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>表面裂缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>混凝土剥离</t>
   </si>
   <si>
-    <t>混凝土剥离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>露筋锈蚀</t>
-  </si>
-  <si>
     <t>梁体下挠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结构裂缝</t>
   </si>
   <si>
-    <t>结构裂缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>裂缝处渗水</t>
   </si>
   <si>
-    <t>裂缝处渗水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥面贯通横缝</t>
-  </si>
-  <si>
     <t>梁体位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>横向联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥面贯通纵缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>连接件脱焊松动</t>
@@ -265,54 +243,93 @@
     <t>连接件断裂</t>
   </si>
   <si>
-    <t>连接件断裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>横隔板网裂</t>
   </si>
   <si>
-    <t>横隔板网裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>横隔板剥落露筋</t>
   </si>
   <si>
-    <t>横隔板剥落露筋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梁体异常振动</t>
   </si>
   <si>
-    <t>梁体异常振动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>拱桥横向联系</t>
+  </si>
+  <si>
+    <t>微弯板网裂</t>
+  </si>
+  <si>
+    <t>微弯板剥落露筋</t>
+  </si>
+  <si>
+    <t>连接件（杆）开裂</t>
+  </si>
+  <si>
+    <t>连接件（杆）剥落露筋</t>
   </si>
   <si>
     <t>防落梁装置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有无落架趋势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>牛腿表面损伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伸缩缝处渗水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>钢锚板锈蚀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主拱圈</t>
+  </si>
+  <si>
+    <t>桥面贯通橫缝</t>
+  </si>
+  <si>
+    <t>砌体脱落</t>
+  </si>
+  <si>
+    <t>砂浆松动缺失</t>
+  </si>
+  <si>
+    <t>表面风化损坏</t>
+  </si>
+  <si>
+    <t>表面网状裂缝</t>
+  </si>
+  <si>
+    <t>构件断裂</t>
+  </si>
+  <si>
+    <t>节点开裂</t>
+  </si>
+  <si>
+    <t>拱上构造</t>
+  </si>
+  <si>
+    <t>表面风化剥落</t>
+  </si>
+  <si>
+    <t>侧墙变形</t>
+  </si>
+  <si>
+    <t>砌体缺损</t>
+  </si>
+  <si>
+    <t>腹拱圈变形</t>
+  </si>
+  <si>
+    <t>表面开裂</t>
   </si>
   <si>
     <t>台帽</t>
   </si>
   <si>
+    <t>台帽盖梁</t>
+  </si>
+  <si>
     <t>墩台成块剥落</t>
   </si>
   <si>
@@ -322,6 +339,9 @@
     <t>墩身</t>
   </si>
   <si>
+    <t>墩台身</t>
+  </si>
+  <si>
     <t>墩身水平裂缝</t>
   </si>
   <si>
@@ -335,103 +355,390 @@
   </si>
   <si>
     <t>台身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支座</t>
+  </si>
+  <si>
+    <t>固定螺栓损坏</t>
+  </si>
+  <si>
+    <t>橡胶支座变形</t>
+  </si>
+  <si>
+    <t>钢支座损坏</t>
+  </si>
+  <si>
+    <t>底板混凝土破损</t>
+  </si>
+  <si>
+    <t>稳定性异常</t>
+  </si>
+  <si>
+    <t>钢垫板锈蚀</t>
   </si>
   <si>
     <t>耳背翼墙</t>
-  </si>
-  <si>
-    <t>支座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定螺栓损坏</t>
-  </si>
-  <si>
-    <t>橡胶支座变形</t>
-  </si>
-  <si>
-    <t>钢支座损坏</t>
-  </si>
-  <si>
-    <t>底板混凝土破损</t>
-  </si>
-  <si>
-    <t>稳定性异常</t>
-  </si>
-  <si>
-    <t>钢垫板锈蚀</t>
-  </si>
-  <si>
-    <t>网裂或龟裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波浪及车辙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎裂或破碎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止水带破损、老化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要素分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病害分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏杆或护栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盖梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台帽盖梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墩台身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -439,24 +746,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,7 +1099,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -540,7 +1134,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -714,69 +1308,62 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="6" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -785,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -797,15 +1384,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -814,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -826,15 +1413,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -843,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -855,15 +1442,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -872,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -884,15 +1471,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -901,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -913,15 +1500,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -930,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -942,15 +1529,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -959,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -971,15 +1558,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -988,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -1000,15 +1587,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1017,10 +1604,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -1029,15 +1616,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1046,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -1058,15 +1645,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1075,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1087,15 +1674,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1104,10 +1691,10 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1116,15 +1703,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1133,10 +1720,10 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1145,15 +1732,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1162,10 +1749,10 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1174,15 +1761,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1191,10 +1778,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1203,15 +1790,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1220,10 +1807,10 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1232,15 +1819,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1249,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1261,15 +1848,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1278,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1290,15 +1877,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1307,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -1319,15 +1906,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1336,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -1348,15 +1935,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1365,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -1377,15 +1964,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1394,10 +1981,10 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>7</v>
@@ -1406,15 +1993,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1423,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>8</v>
@@ -1435,15 +2022,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1452,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>9</v>
@@ -1464,15 +2051,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1481,10 +2068,10 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -1493,15 +2080,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1510,10 +2097,10 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1522,15 +2109,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1539,10 +2126,10 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1551,15 +2138,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1568,10 +2155,10 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1580,15 +2167,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1597,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -1609,15 +2196,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1626,10 +2213,10 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -1638,15 +2225,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -1655,10 +2242,10 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1667,15 +2254,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -1684,10 +2271,10 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1696,15 +2283,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -1713,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1725,15 +2312,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -1742,10 +2329,10 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -1754,15 +2341,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -1771,10 +2358,10 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1783,15 +2370,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -1800,10 +2387,10 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1812,15 +2399,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -1829,10 +2416,10 @@
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -1841,15 +2428,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -1858,10 +2445,10 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -1870,15 +2457,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -1887,10 +2474,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1899,15 +2486,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -1916,10 +2503,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1928,15 +2515,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -1945,10 +2532,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -1957,15 +2544,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -1974,10 +2561,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -1986,15 +2573,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>6</v>
@@ -2003,10 +2590,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -2015,15 +2602,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D45">
         <v>7</v>
@@ -2032,10 +2619,10 @@
         <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2045,66 +2632,66 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F47B95-C7A3-4623-A36A-AB1202BB73A7}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2113,10 +2700,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2125,15 +2712,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2142,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2154,15 +2741,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2171,10 +2758,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2183,27 +2770,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2212,27 +2799,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2241,27 +2828,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -2270,27 +2857,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -2299,27 +2886,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -2328,131 +2915,131 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
       <c r="I10">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2461,56 +3048,56 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2519,172 +3106,172 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
         <v>71</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
       <c r="H20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2693,105 +3280,1266 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
         <v>99</v>
       </c>
-      <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23">
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49">
+        <v>9</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
         <v>99</v>
       </c>
     </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" t="s">
+        <v>99</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61">
+        <v>9</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>99</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE83029-A805-4535-A6D5-DF10F8642D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16:G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2800,10 +4548,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2812,15 +4560,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2829,10 +4577,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2841,15 +4589,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2858,10 +4606,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2870,15 +4618,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2887,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2899,15 +4647,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2916,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2928,15 +4676,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2945,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -2957,15 +4705,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2974,10 +4722,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -2986,15 +4734,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3003,10 +4751,10 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3015,15 +4763,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3032,10 +4780,10 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -3044,15 +4792,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3061,10 +4809,10 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -3073,15 +4821,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3090,10 +4838,10 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -3102,15 +4850,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3119,10 +4867,10 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -3131,15 +4879,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3148,10 +4896,10 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -3160,15 +4908,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3177,10 +4925,10 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -3189,15 +4937,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3206,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3218,15 +4966,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -3235,10 +4983,10 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3247,15 +4995,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3264,10 +5012,10 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -3276,15 +5024,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3293,10 +5041,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -3305,15 +5053,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -3322,10 +5070,10 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -3334,15 +5082,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3351,10 +5099,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -3363,15 +5111,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3380,10 +5128,10 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -3392,15 +5140,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3409,10 +5157,10 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>7</v>
@@ -3421,15 +5169,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -3438,10 +5186,10 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3450,15 +5198,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -3467,10 +5215,10 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3479,15 +5227,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -3496,10 +5244,10 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -3508,15 +5256,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -3525,10 +5273,10 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3537,15 +5285,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -3554,10 +5302,10 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3566,15 +5314,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -3583,10 +5331,10 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -3595,15 +5343,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3612,10 +5360,10 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H30">
         <v>6</v>
@@ -3624,15 +5372,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -3641,10 +5389,10 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H31">
         <v>7</v>
@@ -3653,15 +5401,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -3670,10 +5418,10 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3682,15 +5430,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -3699,10 +5447,10 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3711,15 +5459,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -3728,10 +5476,10 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3740,15 +5488,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -3757,10 +5505,10 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3769,15 +5517,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -3786,10 +5534,10 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -3798,15 +5546,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -3815,10 +5563,10 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3827,15 +5575,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -3844,10 +5592,10 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H38">
         <v>6</v>
@@ -3856,15 +5604,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3873,10 +5621,10 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3885,15 +5633,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -3902,10 +5650,10 @@
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -3914,15 +5662,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -3931,10 +5679,10 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -3943,15 +5691,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -3960,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -3972,15 +5720,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -3989,10 +5737,10 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4001,15 +5749,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -4018,10 +5766,10 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4030,15 +5778,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -4047,10 +5795,10 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H45">
         <v>6</v>
@@ -4059,15 +5807,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -4076,10 +5824,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4089,7 +5837,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>